--- a/state_results/Rivers/OruakeretakiatdsPPCSOringiSTP_beb4afba33.xlsx
+++ b/state_results/Rivers/OruakeretakiatdsPPCSOringiSTP_beb4afba33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U187"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.98443492148032</v>
+        <v>2.0956741637354</v>
       </c>
       <c r="H2" t="n">
-        <v>5.41955705250445</v>
+        <v>8.157916199868829</v>
       </c>
       <c r="I2" t="n">
-        <v>3.70483</v>
+        <v>4.47347</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>3.036</v>
+        <v>3.05191</v>
       </c>
       <c r="N2" t="n">
-        <v>3.49823</v>
+        <v>3.50011</v>
       </c>
       <c r="O2" t="n">
         <v>1858500.696</v>
@@ -1153,7 +1153,7 @@
         <v>0.0054</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0104857709998281</v>
+        <v>0.0104868773562543</v>
       </c>
       <c r="H9" t="n">
         <v>0.115180001070228</v>
@@ -1234,7 +1234,7 @@
         <v>0.0054</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0104857709998281</v>
+        <v>0.0104868773562543</v>
       </c>
       <c r="H10" t="n">
         <v>0.115180001070228</v>
@@ -1473,7 +1473,7 @@
         <v>1.0135</v>
       </c>
       <c r="G13" t="n">
-        <v>1.13316</v>
+        <v>1.13315</v>
       </c>
       <c r="H13" t="n">
         <v>3.011</v>
@@ -1490,7 +1490,7 @@
         <v>1.662</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2035</v>
+        <v>2.20325</v>
       </c>
       <c r="O13" t="n">
         <v>1858500.696</v>
@@ -1550,7 +1550,7 @@
         <v>1.0135</v>
       </c>
       <c r="G14" t="n">
-        <v>1.13316</v>
+        <v>1.13315</v>
       </c>
       <c r="H14" t="n">
         <v>3.011</v>
@@ -1567,7 +1567,7 @@
         <v>1.662</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2035</v>
+        <v>2.20325</v>
       </c>
       <c r="O14" t="n">
         <v>1858500.696</v>
@@ -1939,13 +1939,13 @@
         <v>2.045</v>
       </c>
       <c r="G19" t="n">
-        <v>2.25490652666451</v>
+        <v>2.34687072473821</v>
       </c>
       <c r="H19" t="n">
-        <v>5.41955705250445</v>
+        <v>8.157916199868829</v>
       </c>
       <c r="I19" t="n">
-        <v>4.864</v>
+        <v>5.21173</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1953,10 +1953,10 @@
         <v>2.605</v>
       </c>
       <c r="M19" t="n">
-        <v>3.52814</v>
+        <v>3.568</v>
       </c>
       <c r="N19" t="n">
-        <v>4.50714</v>
+        <v>4.67339</v>
       </c>
       <c r="O19" t="n">
         <v>1858500.696</v>
@@ -2522,7 +2522,7 @@
         <v>0.00518</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0100563857838297</v>
+        <v>0.0100569206802743</v>
       </c>
       <c r="H26" t="n">
         <v>0.115180001070228</v>
@@ -2603,7 +2603,7 @@
         <v>0.00518</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0100563857838297</v>
+        <v>0.0100569206802743</v>
       </c>
       <c r="H27" t="n">
         <v>0.115180001070228</v>
@@ -2842,13 +2842,13 @@
         <v>1.0135</v>
       </c>
       <c r="G30" t="n">
-        <v>1.08436538461538</v>
+        <v>1.08437884615385</v>
       </c>
       <c r="H30" t="n">
         <v>3.011</v>
       </c>
       <c r="I30" t="n">
-        <v>2.2802</v>
+        <v>2.28015</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2856,10 +2856,10 @@
         <v>0.569</v>
       </c>
       <c r="M30" t="n">
-        <v>1.6314</v>
+        <v>1.63157</v>
       </c>
       <c r="N30" t="n">
-        <v>2.1899</v>
+        <v>2.18973</v>
       </c>
       <c r="O30" t="n">
         <v>1858500.696</v>
@@ -2919,13 +2919,13 @@
         <v>1.0135</v>
       </c>
       <c r="G31" t="n">
-        <v>1.08436538461538</v>
+        <v>1.08437884615385</v>
       </c>
       <c r="H31" t="n">
         <v>3.011</v>
       </c>
       <c r="I31" t="n">
-        <v>2.2802</v>
+        <v>2.28015</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2933,10 +2933,10 @@
         <v>0.569</v>
       </c>
       <c r="M31" t="n">
-        <v>1.6314</v>
+        <v>1.63157</v>
       </c>
       <c r="N31" t="n">
-        <v>2.1899</v>
+        <v>2.18973</v>
       </c>
       <c r="O31" t="n">
         <v>1858500.696</v>
@@ -3308,13 +3308,13 @@
         <v>2.095</v>
       </c>
       <c r="G36" t="n">
-        <v>2.36944773242198</v>
+        <v>2.46559212131722</v>
       </c>
       <c r="H36" t="n">
-        <v>5.41955705250445</v>
+        <v>8.157916199868829</v>
       </c>
       <c r="I36" t="n">
-        <v>4.906</v>
+        <v>5.2176</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3322,10 +3322,10 @@
         <v>3.2</v>
       </c>
       <c r="M36" t="n">
-        <v>3.50083</v>
+        <v>3.502</v>
       </c>
       <c r="N36" t="n">
-        <v>4.60964</v>
+        <v>4.76815</v>
       </c>
       <c r="O36" t="n">
         <v>1858500.696</v>
@@ -3891,7 +3891,7 @@
         <v>0.00352</v>
       </c>
       <c r="G43" t="n">
-        <v>0.009098617265576699</v>
+        <v>0.009098970274600901</v>
       </c>
       <c r="H43" t="n">
         <v>0.115180001070228</v>
@@ -3972,7 +3972,7 @@
         <v>0.00352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.009098617265576699</v>
+        <v>0.009098970274600901</v>
       </c>
       <c r="H44" t="n">
         <v>0.115180001070228</v>
@@ -4208,10 +4208,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.0355</v>
+        <v>1.03575</v>
       </c>
       <c r="G47" t="n">
-        <v>1.03159615384615</v>
+        <v>1.03160192307692</v>
       </c>
       <c r="H47" t="n">
         <v>3.011</v>
@@ -4222,10 +4222,10 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.442</v>
+        <v>0.4415</v>
       </c>
       <c r="M47" t="n">
-        <v>1.61154</v>
+        <v>1.61171</v>
       </c>
       <c r="N47" t="n">
         <v>1.90542</v>
@@ -4285,10 +4285,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.0355</v>
+        <v>1.03575</v>
       </c>
       <c r="G48" t="n">
-        <v>1.03159615384615</v>
+        <v>1.03160192307692</v>
       </c>
       <c r="H48" t="n">
         <v>3.011</v>
@@ -4299,10 +4299,10 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.442</v>
+        <v>0.4415</v>
       </c>
       <c r="M48" t="n">
-        <v>1.61154</v>
+        <v>1.61171</v>
       </c>
       <c r="N48" t="n">
         <v>1.90542</v>
@@ -4677,13 +4677,13 @@
         <v>2.105</v>
       </c>
       <c r="G53" t="n">
-        <v>2.38325298279298</v>
+        <v>2.47473726289923</v>
       </c>
       <c r="H53" t="n">
-        <v>5.2</v>
+        <v>8.157916199868829</v>
       </c>
       <c r="I53" t="n">
-        <v>4.64449</v>
+        <v>4.822</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4691,10 +4691,10 @@
         <v>3.23</v>
       </c>
       <c r="M53" t="n">
-        <v>3.56131</v>
+        <v>3.6136</v>
       </c>
       <c r="N53" t="n">
-        <v>4.296</v>
+        <v>4.39383</v>
       </c>
       <c r="O53" t="n">
         <v>1858500.696</v>
@@ -5260,7 +5260,7 @@
         <v>0.0015</v>
       </c>
       <c r="G60" t="n">
-        <v>0.008172384930338001</v>
+        <v>0.0081742583328154</v>
       </c>
       <c r="H60" t="n">
         <v>0.115180001070228</v>
@@ -5341,7 +5341,7 @@
         <v>0.0015</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008172384930338001</v>
+        <v>0.0081742583328154</v>
       </c>
       <c r="H61" t="n">
         <v>0.115180001070228</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.0355</v>
+        <v>1.03575</v>
       </c>
       <c r="G64" t="n">
-        <v>1.03909259259259</v>
+        <v>1.03907777777778</v>
       </c>
       <c r="H64" t="n">
         <v>2.284</v>
@@ -5591,10 +5591,10 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.613</v>
+        <v>0.6126</v>
       </c>
       <c r="M64" t="n">
-        <v>1.7268</v>
+        <v>1.7267</v>
       </c>
       <c r="N64" t="n">
         <v>1.87934</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.0355</v>
+        <v>1.03575</v>
       </c>
       <c r="G65" t="n">
-        <v>1.03909259259259</v>
+        <v>1.03907777777778</v>
       </c>
       <c r="H65" t="n">
         <v>2.284</v>
@@ -5668,10 +5668,10 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.613</v>
+        <v>0.6126</v>
       </c>
       <c r="M65" t="n">
-        <v>1.7268</v>
+        <v>1.7267</v>
       </c>
       <c r="N65" t="n">
         <v>1.87934</v>
@@ -6046,13 +6046,13 @@
         <v>2.35</v>
       </c>
       <c r="G70" t="n">
-        <v>2.48379185696226</v>
+        <v>2.47961985961656</v>
       </c>
       <c r="H70" t="n">
         <v>5.2</v>
       </c>
       <c r="I70" t="n">
-        <v>4.74989</v>
+        <v>4.724</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6063,7 +6063,7 @@
         <v>3.6128</v>
       </c>
       <c r="N70" t="n">
-        <v>4.5233</v>
+        <v>4.24395</v>
       </c>
       <c r="O70" t="n">
         <v>1858500.696</v>
@@ -6127,7 +6127,7 @@
         <v>0.0145</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0144888549755986</v>
+        <v>0.0144936209413793</v>
       </c>
       <c r="H71" t="n">
         <v>0.062</v>
@@ -6208,7 +6208,7 @@
         <v>0.0145</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0144888549755986</v>
+        <v>0.0144936209413793</v>
       </c>
       <c r="H72" t="n">
         <v>0.062</v>
@@ -6289,7 +6289,7 @@
         <v>188</v>
       </c>
       <c r="G73" t="n">
-        <v>427.257678051189</v>
+        <v>430.90264103343</v>
       </c>
       <c r="H73" t="n">
         <v>5654</v>
@@ -6374,7 +6374,7 @@
         <v>188</v>
       </c>
       <c r="G74" t="n">
-        <v>427.257678051189</v>
+        <v>430.90264103343</v>
       </c>
       <c r="H74" t="n">
         <v>5654</v>
@@ -6459,7 +6459,7 @@
         <v>188</v>
       </c>
       <c r="G75" t="n">
-        <v>427.257678051189</v>
+        <v>430.90264103343</v>
       </c>
       <c r="H75" t="n">
         <v>5654</v>
@@ -6544,7 +6544,7 @@
         <v>188</v>
       </c>
       <c r="G76" t="n">
-        <v>427.257678051189</v>
+        <v>430.90264103343</v>
       </c>
       <c r="H76" t="n">
         <v>5654</v>
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00101</v>
+        <v>0.00103</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0051096113395575</v>
+        <v>0.0051155221451513</v>
       </c>
       <c r="H77" t="n">
         <v>0.055</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00098</v>
+        <v>0.00099</v>
       </c>
       <c r="M77" t="n">
         <v>0.00719</v>
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00101</v>
+        <v>0.00103</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0051096113395575</v>
+        <v>0.0051155221451513</v>
       </c>
       <c r="H78" t="n">
         <v>0.055</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00098</v>
+        <v>0.00099</v>
       </c>
       <c r="M78" t="n">
         <v>0.00719</v>
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.0675</v>
+        <v>1.0679</v>
       </c>
       <c r="G81" t="n">
-        <v>1.0592</v>
+        <v>1.05918666666667</v>
       </c>
       <c r="H81" t="n">
         <v>2.595</v>
@@ -6960,10 +6960,10 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.39</v>
+        <v>0.38975</v>
       </c>
       <c r="M81" t="n">
-        <v>1.7922</v>
+        <v>1.79213</v>
       </c>
       <c r="N81" t="n">
         <v>1.9686</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.0675</v>
+        <v>1.0679</v>
       </c>
       <c r="G82" t="n">
-        <v>1.0592</v>
+        <v>1.05918666666667</v>
       </c>
       <c r="H82" t="n">
         <v>2.595</v>
@@ -7037,10 +7037,10 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.39</v>
+        <v>0.38975</v>
       </c>
       <c r="M82" t="n">
-        <v>1.7922</v>
+        <v>1.79213</v>
       </c>
       <c r="N82" t="n">
         <v>1.9686</v>
@@ -7415,13 +7415,13 @@
         <v>2.3</v>
       </c>
       <c r="G87" t="n">
-        <v>2.3796932134147</v>
+        <v>2.37151367520502</v>
       </c>
       <c r="H87" t="n">
         <v>5.2</v>
       </c>
       <c r="I87" t="n">
-        <v>4.74989</v>
+        <v>4.724</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -7432,7 +7432,7 @@
         <v>3.6128</v>
       </c>
       <c r="N87" t="n">
-        <v>4.5233</v>
+        <v>4.24395</v>
       </c>
       <c r="O87" t="n">
         <v>1858500.696</v>
@@ -7496,7 +7496,7 @@
         <v>0.016</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0378221883089319</v>
+        <v>0.0378269542747127</v>
       </c>
       <c r="H88" t="n">
         <v>1.36</v>
@@ -7577,7 +7577,7 @@
         <v>0.016</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0378221883089319</v>
+        <v>0.0378269542747127</v>
       </c>
       <c r="H89" t="n">
         <v>1.36</v>
@@ -7658,7 +7658,7 @@
         <v>195</v>
       </c>
       <c r="G90" t="n">
-        <v>431.541011384523</v>
+        <v>435.185974366763</v>
       </c>
       <c r="H90" t="n">
         <v>5654</v>
@@ -7743,7 +7743,7 @@
         <v>195</v>
       </c>
       <c r="G91" t="n">
-        <v>431.541011384523</v>
+        <v>435.185974366763</v>
       </c>
       <c r="H91" t="n">
         <v>5654</v>
@@ -7828,7 +7828,7 @@
         <v>195</v>
       </c>
       <c r="G92" t="n">
-        <v>431.541011384523</v>
+        <v>435.185974366763</v>
       </c>
       <c r="H92" t="n">
         <v>5654</v>
@@ -7913,7 +7913,7 @@
         <v>195</v>
       </c>
       <c r="G93" t="n">
-        <v>431.541011384523</v>
+        <v>435.185974366763</v>
       </c>
       <c r="H93" t="n">
         <v>5654</v>
@@ -7995,10 +7995,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.00101</v>
+        <v>0.00103</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0018919382748402</v>
+        <v>0.0019068705909498</v>
       </c>
       <c r="H94" t="n">
         <v>0.0124516897157924</v>
@@ -8009,7 +8009,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00098</v>
+        <v>0.00099</v>
       </c>
       <c r="M94" t="n">
         <v>0.0031</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.00101</v>
+        <v>0.00103</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0018919382748402</v>
+        <v>0.0019068705909498</v>
       </c>
       <c r="H95" t="n">
         <v>0.0124516897157924</v>
@@ -8090,7 +8090,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00098</v>
+        <v>0.00099</v>
       </c>
       <c r="M95" t="n">
         <v>0.0031</v>
@@ -8315,10 +8315,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.0695</v>
+        <v>1.06965</v>
       </c>
       <c r="G98" t="n">
-        <v>1.07348333333333</v>
+        <v>1.07347</v>
       </c>
       <c r="H98" t="n">
         <v>2.595</v>
@@ -8329,10 +8329,10 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.365</v>
+        <v>0.36475</v>
       </c>
       <c r="M98" t="n">
-        <v>1.7922</v>
+        <v>1.79213</v>
       </c>
       <c r="N98" t="n">
         <v>1.9881</v>
@@ -8392,10 +8392,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.0695</v>
+        <v>1.06965</v>
       </c>
       <c r="G99" t="n">
-        <v>1.07348333333333</v>
+        <v>1.07347</v>
       </c>
       <c r="H99" t="n">
         <v>2.595</v>
@@ -8406,10 +8406,10 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.365</v>
+        <v>0.36475</v>
       </c>
       <c r="M99" t="n">
-        <v>1.7922</v>
+        <v>1.79213</v>
       </c>
       <c r="N99" t="n">
         <v>1.9881</v>
@@ -8865,7 +8865,7 @@
         <v>0.0165</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0391555216422652</v>
+        <v>0.039160287608046</v>
       </c>
       <c r="H105" t="n">
         <v>1.36</v>
@@ -8946,7 +8946,7 @@
         <v>0.0165</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0391555216422652</v>
+        <v>0.039160287608046</v>
       </c>
       <c r="H106" t="n">
         <v>1.36</v>
@@ -9027,10 +9027,10 @@
         <v>195</v>
       </c>
       <c r="G107" t="n">
-        <v>387.407678051189</v>
+        <v>391.05264103343</v>
       </c>
       <c r="H107" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I107" t="n">
         <v>1800</v>
@@ -9112,10 +9112,10 @@
         <v>195</v>
       </c>
       <c r="G108" t="n">
-        <v>387.407678051189</v>
+        <v>391.05264103343</v>
       </c>
       <c r="H108" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I108" t="n">
         <v>1800</v>
@@ -9197,10 +9197,10 @@
         <v>195</v>
       </c>
       <c r="G109" t="n">
-        <v>387.407678051189</v>
+        <v>391.05264103343</v>
       </c>
       <c r="H109" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I109" t="n">
         <v>1800</v>
@@ -9282,10 +9282,10 @@
         <v>195</v>
       </c>
       <c r="G110" t="n">
-        <v>387.407678051189</v>
+        <v>391.05264103343</v>
       </c>
       <c r="H110" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I110" t="n">
         <v>1800</v>
@@ -9364,13 +9364,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00142</v>
+        <v>0.00145</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0024692582793908</v>
+        <v>0.0025051471160177</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0222056474802722</v>
+        <v>0.0228592422548711</v>
       </c>
       <c r="I111" t="n">
         <v>0.008370000000000001</v>
@@ -9378,13 +9378,13 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00134</v>
+        <v>0.00137</v>
       </c>
       <c r="M111" t="n">
-        <v>0.00395</v>
+        <v>0.00403</v>
       </c>
       <c r="N111" t="n">
-        <v>0.00613</v>
+        <v>0.00618</v>
       </c>
       <c r="O111" t="n">
         <v>1858500.696</v>
@@ -9445,13 +9445,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00142</v>
+        <v>0.00145</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0024692582793908</v>
+        <v>0.0025051471160177</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0222056474802722</v>
+        <v>0.0228592422548711</v>
       </c>
       <c r="I112" t="n">
         <v>0.008370000000000001</v>
@@ -9459,13 +9459,13 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00134</v>
+        <v>0.00137</v>
       </c>
       <c r="M112" t="n">
-        <v>0.00395</v>
+        <v>0.00403</v>
       </c>
       <c r="N112" t="n">
-        <v>0.00613</v>
+        <v>0.00618</v>
       </c>
       <c r="O112" t="n">
         <v>1858500.696</v>
@@ -9684,10 +9684,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.116</v>
+        <v>1.11625</v>
       </c>
       <c r="G115" t="n">
-        <v>1.11783333333333</v>
+        <v>1.1178</v>
       </c>
       <c r="H115" t="n">
         <v>2.595</v>
@@ -9701,7 +9701,7 @@
         <v>0.45</v>
       </c>
       <c r="M115" t="n">
-        <v>1.7798</v>
+        <v>1.77977</v>
       </c>
       <c r="N115" t="n">
         <v>1.9105</v>
@@ -9761,10 +9761,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.116</v>
+        <v>1.11625</v>
       </c>
       <c r="G116" t="n">
-        <v>1.11783333333333</v>
+        <v>1.1178</v>
       </c>
       <c r="H116" t="n">
         <v>2.595</v>
@@ -9778,7 +9778,7 @@
         <v>0.45</v>
       </c>
       <c r="M116" t="n">
-        <v>1.7798</v>
+        <v>1.77977</v>
       </c>
       <c r="N116" t="n">
         <v>1.9105</v>
@@ -10153,13 +10153,13 @@
         <v>1.99</v>
       </c>
       <c r="G121" t="n">
-        <v>2.00898574812374</v>
+        <v>2.03928521073219</v>
       </c>
       <c r="H121" t="n">
         <v>4.8</v>
       </c>
       <c r="I121" t="n">
-        <v>4.108</v>
+        <v>4.1987</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -10167,10 +10167,10 @@
         <v>2.63</v>
       </c>
       <c r="M121" t="n">
-        <v>2.9608</v>
+        <v>3.096</v>
       </c>
       <c r="N121" t="n">
-        <v>3.736</v>
+        <v>4.13055</v>
       </c>
       <c r="O121" t="n">
         <v>1858500.696</v>
@@ -10234,7 +10234,7 @@
         <v>0.016</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0383888549755986</v>
+        <v>0.0383936209413793</v>
       </c>
       <c r="H122" t="n">
         <v>1.36</v>
@@ -10315,7 +10315,7 @@
         <v>0.016</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0383888549755986</v>
+        <v>0.0383936209413793</v>
       </c>
       <c r="H123" t="n">
         <v>1.36</v>
@@ -10396,10 +10396,10 @@
         <v>165</v>
       </c>
       <c r="G124" t="n">
-        <v>387.891011384523</v>
+        <v>391.535974366763</v>
       </c>
       <c r="H124" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I124" t="n">
         <v>1800</v>
@@ -10481,10 +10481,10 @@
         <v>165</v>
       </c>
       <c r="G125" t="n">
-        <v>387.891011384523</v>
+        <v>391.535974366763</v>
       </c>
       <c r="H125" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I125" t="n">
         <v>1800</v>
@@ -10566,10 +10566,10 @@
         <v>165</v>
       </c>
       <c r="G126" t="n">
-        <v>387.891011384523</v>
+        <v>391.535974366763</v>
       </c>
       <c r="H126" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I126" t="n">
         <v>1800</v>
@@ -10651,10 +10651,10 @@
         <v>165</v>
       </c>
       <c r="G127" t="n">
-        <v>387.891011384523</v>
+        <v>391.535974366763</v>
       </c>
       <c r="H127" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I127" t="n">
         <v>1800</v>
@@ -10733,13 +10733,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.00208</v>
+        <v>0.00214</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0034744320938955</v>
+        <v>0.0035257452911242</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0222056474802722</v>
+        <v>0.0228592422548711</v>
       </c>
       <c r="I128" t="n">
         <v>0.01113</v>
@@ -10747,10 +10747,10 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.0021</v>
+        <v>0.00215</v>
       </c>
       <c r="M128" t="n">
-        <v>0.00558</v>
+        <v>0.00566</v>
       </c>
       <c r="N128" t="n">
         <v>0.008920000000000001</v>
@@ -10814,13 +10814,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00208</v>
+        <v>0.00214</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0034744320938955</v>
+        <v>0.0035257452911242</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0222056474802722</v>
+        <v>0.0228592422548711</v>
       </c>
       <c r="I129" t="n">
         <v>0.01113</v>
@@ -10828,10 +10828,10 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.0021</v>
+        <v>0.00215</v>
       </c>
       <c r="M129" t="n">
-        <v>0.00558</v>
+        <v>0.00566</v>
       </c>
       <c r="N129" t="n">
         <v>0.008920000000000001</v>
@@ -11056,7 +11056,7 @@
         <v>1.03</v>
       </c>
       <c r="G132" t="n">
-        <v>1.08458333333333</v>
+        <v>1.084565</v>
       </c>
       <c r="H132" t="n">
         <v>2.595</v>
@@ -11070,10 +11070,10 @@
         <v>0.47</v>
       </c>
       <c r="M132" t="n">
-        <v>1.7719</v>
+        <v>1.77186</v>
       </c>
       <c r="N132" t="n">
-        <v>1.8527</v>
+        <v>1.85261</v>
       </c>
       <c r="O132" t="n">
         <v>1858500.696</v>
@@ -11133,7 +11133,7 @@
         <v>1.03</v>
       </c>
       <c r="G133" t="n">
-        <v>1.08458333333333</v>
+        <v>1.084565</v>
       </c>
       <c r="H133" t="n">
         <v>2.595</v>
@@ -11147,10 +11147,10 @@
         <v>0.47</v>
       </c>
       <c r="M133" t="n">
-        <v>1.7719</v>
+        <v>1.77186</v>
       </c>
       <c r="N133" t="n">
-        <v>1.8527</v>
+        <v>1.85261</v>
       </c>
       <c r="O133" t="n">
         <v>1858500.696</v>
@@ -11522,13 +11522,13 @@
         <v>1.85</v>
       </c>
       <c r="G138" t="n">
-        <v>1.88148250906095</v>
+        <v>1.91866821317132</v>
       </c>
       <c r="H138" t="n">
         <v>4.8</v>
       </c>
       <c r="I138" t="n">
-        <v>3.754</v>
+        <v>4.17451</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -11536,10 +11536,10 @@
         <v>2.438</v>
       </c>
       <c r="M138" t="n">
-        <v>2.90085</v>
+        <v>2.902</v>
       </c>
       <c r="N138" t="n">
-        <v>3.37515</v>
+        <v>4.11321</v>
       </c>
       <c r="O138" t="n">
         <v>1858500.696</v>
@@ -11603,7 +11603,7 @@
         <v>0.016</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0389717169243375</v>
+        <v>0.0389765636691993</v>
       </c>
       <c r="H139" t="n">
         <v>1.36</v>
@@ -11684,7 +11684,7 @@
         <v>0.016</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0389717169243375</v>
+        <v>0.0389765636691993</v>
       </c>
       <c r="H140" t="n">
         <v>1.36</v>
@@ -11765,10 +11765,10 @@
         <v>190</v>
       </c>
       <c r="G141" t="n">
-        <v>354.770520052057</v>
+        <v>358.477262067895</v>
       </c>
       <c r="H141" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I141" t="n">
         <v>1265</v>
@@ -11850,10 +11850,10 @@
         <v>190</v>
       </c>
       <c r="G142" t="n">
-        <v>354.770520052057</v>
+        <v>358.477262067895</v>
       </c>
       <c r="H142" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I142" t="n">
         <v>1265</v>
@@ -11935,10 +11935,10 @@
         <v>190</v>
       </c>
       <c r="G143" t="n">
-        <v>354.770520052057</v>
+        <v>358.477262067895</v>
       </c>
       <c r="H143" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I143" t="n">
         <v>1265</v>
@@ -12020,10 +12020,10 @@
         <v>190</v>
       </c>
       <c r="G144" t="n">
-        <v>354.770520052057</v>
+        <v>358.477262067895</v>
       </c>
       <c r="H144" t="n">
-        <v>2894.46068307135</v>
+        <v>3113.1584620058</v>
       </c>
       <c r="I144" t="n">
         <v>1265</v>
@@ -12102,13 +12102,13 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.0028</v>
+        <v>0.00288</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0040962341530132</v>
+        <v>0.0041487056344012</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0222056474802722</v>
+        <v>0.0228592422548711</v>
       </c>
       <c r="I145" t="n">
         <v>0.01247</v>
@@ -12116,7 +12116,7 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.00335</v>
+        <v>0.00345</v>
       </c>
       <c r="M145" t="n">
         <v>0.00636</v>
@@ -12183,13 +12183,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.0028</v>
+        <v>0.00288</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0040962341530132</v>
+        <v>0.0041487056344012</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0222056474802722</v>
+        <v>0.0228592422548711</v>
       </c>
       <c r="I146" t="n">
         <v>0.01247</v>
@@ -12197,7 +12197,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.00335</v>
+        <v>0.00345</v>
       </c>
       <c r="M146" t="n">
         <v>0.00636</v>
@@ -12425,7 +12425,7 @@
         <v>0.965</v>
       </c>
       <c r="G149" t="n">
-        <v>1.04715254237288</v>
+        <v>1.04716101694915</v>
       </c>
       <c r="H149" t="n">
         <v>2.595</v>
@@ -12502,7 +12502,7 @@
         <v>0.965</v>
       </c>
       <c r="G150" t="n">
-        <v>1.04715254237288</v>
+        <v>1.04716101694915</v>
       </c>
       <c r="H150" t="n">
         <v>2.595</v>
@@ -12891,13 +12891,13 @@
         <v>1.695</v>
       </c>
       <c r="G155" t="n">
-        <v>1.58985971760829</v>
+        <v>1.63798239351583</v>
       </c>
       <c r="H155" t="n">
-        <v>3.37668772412851</v>
+        <v>4.20837128678319</v>
       </c>
       <c r="I155" t="n">
-        <v>2.93388</v>
+        <v>3.87927</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -12905,7 +12905,7 @@
         <v>2.27</v>
       </c>
       <c r="M155" t="n">
-        <v>2.62718</v>
+        <v>2.46</v>
       </c>
       <c r="N155" t="n">
         <v>2.8956</v>
@@ -13471,13 +13471,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00355</v>
+        <v>0.00361</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0044325260407023</v>
+        <v>0.0044799457841502</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0222056474802722</v>
+        <v>0.0228592422548711</v>
       </c>
       <c r="I162" t="n">
         <v>0.01247</v>
@@ -13485,10 +13485,10 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00427</v>
+        <v>0.00434</v>
       </c>
       <c r="M162" t="n">
-        <v>0.00695</v>
+        <v>0.00718</v>
       </c>
       <c r="N162" t="n">
         <v>0.01032</v>
@@ -13552,13 +13552,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00355</v>
+        <v>0.00361</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0044325260407023</v>
+        <v>0.0044799457841502</v>
       </c>
       <c r="H163" t="n">
-        <v>0.0222056474802722</v>
+        <v>0.0228592422548711</v>
       </c>
       <c r="I163" t="n">
         <v>0.01247</v>
@@ -13566,10 +13566,10 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.00427</v>
+        <v>0.00434</v>
       </c>
       <c r="M163" t="n">
-        <v>0.00695</v>
+        <v>0.00718</v>
       </c>
       <c r="N163" t="n">
         <v>0.01032</v>
@@ -13794,7 +13794,7 @@
         <v>0.96</v>
       </c>
       <c r="G166" t="n">
-        <v>1.00613559322034</v>
+        <v>1.00616101694915</v>
       </c>
       <c r="H166" t="n">
         <v>2.195</v>
@@ -13871,7 +13871,7 @@
         <v>0.96</v>
       </c>
       <c r="G167" t="n">
-        <v>1.00613559322034</v>
+        <v>1.00616101694915</v>
       </c>
       <c r="H167" t="n">
         <v>2.195</v>
@@ -14762,10 +14762,10 @@
         <v>0.00455</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0053810504514028</v>
+        <v>0.0054194907241688</v>
       </c>
       <c r="H178" t="n">
-        <v>0.0222056474802722</v>
+        <v>0.0228592422548711</v>
       </c>
       <c r="I178" t="n">
         <v>0.01335</v>
@@ -14843,10 +14843,10 @@
         <v>0.00455</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0053810504514028</v>
+        <v>0.0054194907241688</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0222056474802722</v>
+        <v>0.0228592422548711</v>
       </c>
       <c r="I179" t="n">
         <v>0.01335</v>
@@ -15082,7 +15082,7 @@
         <v>0.99</v>
       </c>
       <c r="G182" t="n">
-        <v>1.00225862068966</v>
+        <v>1.00228448275862</v>
       </c>
       <c r="H182" t="n">
         <v>2.077</v>
@@ -15159,7 +15159,7 @@
         <v>0.99</v>
       </c>
       <c r="G183" t="n">
-        <v>1.00225862068966</v>
+        <v>1.00228448275862</v>
       </c>
       <c r="H183" t="n">
         <v>2.077</v>
@@ -15518,6 +15518,1294 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0217931034482759</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0217931034482759</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>126</v>
+      </c>
+      <c r="G190" t="n">
+        <v>267.145882376294</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1078</v>
+      </c>
+      <c r="J190" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="K190" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L190" t="n">
+        <v>240</v>
+      </c>
+      <c r="M190" t="n">
+        <v>460.4</v>
+      </c>
+      <c r="N190" t="n">
+        <v>977.6</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>126</v>
+      </c>
+      <c r="G191" t="n">
+        <v>267.145882376294</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1078</v>
+      </c>
+      <c r="J191" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="K191" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L191" t="n">
+        <v>240</v>
+      </c>
+      <c r="M191" t="n">
+        <v>460.4</v>
+      </c>
+      <c r="N191" t="n">
+        <v>977.6</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>126</v>
+      </c>
+      <c r="G192" t="n">
+        <v>267.145882376294</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1078</v>
+      </c>
+      <c r="J192" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="K192" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L192" t="n">
+        <v>240</v>
+      </c>
+      <c r="M192" t="n">
+        <v>460.4</v>
+      </c>
+      <c r="N192" t="n">
+        <v>977.6</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>126</v>
+      </c>
+      <c r="G193" t="n">
+        <v>267.145882376294</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1078</v>
+      </c>
+      <c r="J193" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="K193" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L193" t="n">
+        <v>240</v>
+      </c>
+      <c r="M193" t="n">
+        <v>460.4</v>
+      </c>
+      <c r="N193" t="n">
+        <v>977.6</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.00403</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.0049623426000184</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.0180429193970122</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.01335</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0.00439</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.00758</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.01192</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.00403</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.0049623426000184</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.0180429193970122</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.01335</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0.00439</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.00758</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.01192</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.9985000000000001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.03598275862069</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.5764</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1.7488</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.9985000000000001</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.03598275862069</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I197" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1.5764</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1.7488</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1.0055</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.049</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2.186</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2.0476</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1.58892</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1.76184</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>1.0055</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.049</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.186</v>
+      </c>
+      <c r="I199" t="n">
+        <v>2.0476</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1.58892</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1.76184</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.19120689655172</v>
+      </c>
+      <c r="H200" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1.7164</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1.9518</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.19120689655172</v>
+      </c>
+      <c r="H201" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1.7164</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1.9518</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.0418103448275862</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.05672</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Oruakeretaki at d/s PPCS Oringi STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0418103448275862</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.05672</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1858500.696</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5538802.192</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Mana_5d</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OruakeretakiatdsPPCSOringiSTP_beb4afba33.xlsx
+++ b/state_results/Rivers/OruakeretakiatdsPPCSOringiSTP_beb4afba33.xlsx
@@ -570,13 +570,13 @@
         <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0956741637354</v>
+        <v>2.13652992661397</v>
       </c>
       <c r="H2" t="n">
-        <v>8.157916199868829</v>
+        <v>7.50745688318496</v>
       </c>
       <c r="I2" t="n">
-        <v>4.47347</v>
+        <v>5.22738</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>3.05191</v>
+        <v>3.04549</v>
       </c>
       <c r="N2" t="n">
-        <v>3.50011</v>
+        <v>3.95881</v>
       </c>
       <c r="O2" t="n">
         <v>1858500.696</v>
@@ -1939,13 +1939,13 @@
         <v>2.045</v>
       </c>
       <c r="G19" t="n">
-        <v>2.34687072473821</v>
+        <v>2.38598562744129</v>
       </c>
       <c r="H19" t="n">
-        <v>8.157916199868829</v>
+        <v>7.50745688318496</v>
       </c>
       <c r="I19" t="n">
-        <v>5.21173</v>
+        <v>5.5698</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1953,10 +1953,10 @@
         <v>2.605</v>
       </c>
       <c r="M19" t="n">
-        <v>3.568</v>
+        <v>3.6272</v>
       </c>
       <c r="N19" t="n">
-        <v>4.67339</v>
+        <v>4.68839</v>
       </c>
       <c r="O19" t="n">
         <v>1858500.696</v>
@@ -3308,13 +3308,13 @@
         <v>2.095</v>
       </c>
       <c r="G36" t="n">
-        <v>2.46559212131722</v>
+        <v>2.50648497414317</v>
       </c>
       <c r="H36" t="n">
-        <v>8.157916199868829</v>
+        <v>7.50745688318496</v>
       </c>
       <c r="I36" t="n">
-        <v>5.2176</v>
+        <v>5.7547</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3322,10 +3322,10 @@
         <v>3.2</v>
       </c>
       <c r="M36" t="n">
-        <v>3.502</v>
+        <v>3.6008</v>
       </c>
       <c r="N36" t="n">
-        <v>4.76815</v>
+        <v>4.76982</v>
       </c>
       <c r="O36" t="n">
         <v>1858500.696</v>
@@ -4677,10 +4677,10 @@
         <v>2.105</v>
       </c>
       <c r="G53" t="n">
-        <v>2.47473726289923</v>
+        <v>2.47492343738821</v>
       </c>
       <c r="H53" t="n">
-        <v>8.157916199868829</v>
+        <v>7.50745688318496</v>
       </c>
       <c r="I53" t="n">
         <v>4.822</v>
@@ -4691,10 +4691,10 @@
         <v>3.23</v>
       </c>
       <c r="M53" t="n">
-        <v>3.6136</v>
+        <v>3.6604</v>
       </c>
       <c r="N53" t="n">
-        <v>4.39383</v>
+        <v>4.42217</v>
       </c>
       <c r="O53" t="n">
         <v>1858500.696</v>
@@ -6046,13 +6046,13 @@
         <v>2.35</v>
       </c>
       <c r="G70" t="n">
-        <v>2.47961985961656</v>
+        <v>2.57502764866713</v>
       </c>
       <c r="H70" t="n">
-        <v>5.2</v>
+        <v>7.50745688318496</v>
       </c>
       <c r="I70" t="n">
-        <v>4.724</v>
+        <v>4.796</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6060,10 +6060,10 @@
         <v>3.3</v>
       </c>
       <c r="M70" t="n">
-        <v>3.6128</v>
+        <v>3.764</v>
       </c>
       <c r="N70" t="n">
-        <v>4.24395</v>
+        <v>4.5504</v>
       </c>
       <c r="O70" t="n">
         <v>1858500.696</v>
@@ -6289,7 +6289,7 @@
         <v>188</v>
       </c>
       <c r="G73" t="n">
-        <v>430.90264103343</v>
+        <v>433.507645448333</v>
       </c>
       <c r="H73" t="n">
         <v>5654</v>
@@ -6374,7 +6374,7 @@
         <v>188</v>
       </c>
       <c r="G74" t="n">
-        <v>430.90264103343</v>
+        <v>433.507645448333</v>
       </c>
       <c r="H74" t="n">
         <v>5654</v>
@@ -6459,7 +6459,7 @@
         <v>188</v>
       </c>
       <c r="G75" t="n">
-        <v>430.90264103343</v>
+        <v>433.507645448333</v>
       </c>
       <c r="H75" t="n">
         <v>5654</v>
@@ -6544,7 +6544,7 @@
         <v>188</v>
       </c>
       <c r="G76" t="n">
-        <v>430.90264103343</v>
+        <v>433.507645448333</v>
       </c>
       <c r="H76" t="n">
         <v>5654</v>
@@ -7415,7 +7415,7 @@
         <v>2.3</v>
       </c>
       <c r="G87" t="n">
-        <v>2.37151367520502</v>
+        <v>2.37305707304653</v>
       </c>
       <c r="H87" t="n">
         <v>5.2</v>
@@ -7432,7 +7432,7 @@
         <v>3.6128</v>
       </c>
       <c r="N87" t="n">
-        <v>4.24395</v>
+        <v>4.31229</v>
       </c>
       <c r="O87" t="n">
         <v>1858500.696</v>
@@ -7658,7 +7658,7 @@
         <v>195</v>
       </c>
       <c r="G90" t="n">
-        <v>435.185974366763</v>
+        <v>437.790978781666</v>
       </c>
       <c r="H90" t="n">
         <v>5654</v>
@@ -7743,7 +7743,7 @@
         <v>195</v>
       </c>
       <c r="G91" t="n">
-        <v>435.185974366763</v>
+        <v>437.790978781666</v>
       </c>
       <c r="H91" t="n">
         <v>5654</v>
@@ -7828,7 +7828,7 @@
         <v>195</v>
       </c>
       <c r="G92" t="n">
-        <v>435.185974366763</v>
+        <v>437.790978781666</v>
       </c>
       <c r="H92" t="n">
         <v>5654</v>
@@ -7913,7 +7913,7 @@
         <v>195</v>
       </c>
       <c r="G93" t="n">
-        <v>435.185974366763</v>
+        <v>437.790978781666</v>
       </c>
       <c r="H93" t="n">
         <v>5654</v>
@@ -9027,10 +9027,10 @@
         <v>195</v>
       </c>
       <c r="G107" t="n">
-        <v>391.05264103343</v>
+        <v>393.657645448333</v>
       </c>
       <c r="H107" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I107" t="n">
         <v>1800</v>
@@ -9112,10 +9112,10 @@
         <v>195</v>
       </c>
       <c r="G108" t="n">
-        <v>391.05264103343</v>
+        <v>393.657645448333</v>
       </c>
       <c r="H108" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I108" t="n">
         <v>1800</v>
@@ -9197,10 +9197,10 @@
         <v>195</v>
       </c>
       <c r="G109" t="n">
-        <v>391.05264103343</v>
+        <v>393.657645448333</v>
       </c>
       <c r="H109" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I109" t="n">
         <v>1800</v>
@@ -9282,10 +9282,10 @@
         <v>195</v>
       </c>
       <c r="G110" t="n">
-        <v>391.05264103343</v>
+        <v>393.657645448333</v>
       </c>
       <c r="H110" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I110" t="n">
         <v>1800</v>
@@ -10153,13 +10153,13 @@
         <v>1.99</v>
       </c>
       <c r="G121" t="n">
-        <v>2.03928521073219</v>
+        <v>2.01121626707177</v>
       </c>
       <c r="H121" t="n">
         <v>4.8</v>
       </c>
       <c r="I121" t="n">
-        <v>4.1987</v>
+        <v>4.108</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -10167,10 +10167,10 @@
         <v>2.63</v>
       </c>
       <c r="M121" t="n">
-        <v>3.096</v>
+        <v>3.08423</v>
       </c>
       <c r="N121" t="n">
-        <v>4.13055</v>
+        <v>3.82453</v>
       </c>
       <c r="O121" t="n">
         <v>1858500.696</v>
@@ -10396,10 +10396,10 @@
         <v>165</v>
       </c>
       <c r="G124" t="n">
-        <v>391.535974366763</v>
+        <v>394.140978781666</v>
       </c>
       <c r="H124" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I124" t="n">
         <v>1800</v>
@@ -10481,10 +10481,10 @@
         <v>165</v>
       </c>
       <c r="G125" t="n">
-        <v>391.535974366763</v>
+        <v>394.140978781666</v>
       </c>
       <c r="H125" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I125" t="n">
         <v>1800</v>
@@ -10566,10 +10566,10 @@
         <v>165</v>
       </c>
       <c r="G126" t="n">
-        <v>391.535974366763</v>
+        <v>394.140978781666</v>
       </c>
       <c r="H126" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I126" t="n">
         <v>1800</v>
@@ -10651,10 +10651,10 @@
         <v>165</v>
       </c>
       <c r="G127" t="n">
-        <v>391.535974366763</v>
+        <v>394.140978781666</v>
       </c>
       <c r="H127" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I127" t="n">
         <v>1800</v>
@@ -11522,13 +11522,13 @@
         <v>1.85</v>
       </c>
       <c r="G138" t="n">
-        <v>1.91866821317132</v>
+        <v>1.88421996413353</v>
       </c>
       <c r="H138" t="n">
         <v>4.8</v>
       </c>
       <c r="I138" t="n">
-        <v>4.17451</v>
+        <v>3.91357</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>2.902</v>
       </c>
       <c r="N138" t="n">
-        <v>4.11321</v>
+        <v>3.5744</v>
       </c>
       <c r="O138" t="n">
         <v>1858500.696</v>
@@ -11765,10 +11765,10 @@
         <v>190</v>
       </c>
       <c r="G141" t="n">
-        <v>358.477262067895</v>
+        <v>361.1264191</v>
       </c>
       <c r="H141" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I141" t="n">
         <v>1265</v>
@@ -11850,10 +11850,10 @@
         <v>190</v>
       </c>
       <c r="G142" t="n">
-        <v>358.477262067895</v>
+        <v>361.1264191</v>
       </c>
       <c r="H142" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I142" t="n">
         <v>1265</v>
@@ -11935,10 +11935,10 @@
         <v>190</v>
       </c>
       <c r="G143" t="n">
-        <v>358.477262067895</v>
+        <v>361.1264191</v>
       </c>
       <c r="H143" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I143" t="n">
         <v>1265</v>
@@ -12020,10 +12020,10 @@
         <v>190</v>
       </c>
       <c r="G144" t="n">
-        <v>358.477262067895</v>
+        <v>361.1264191</v>
       </c>
       <c r="H144" t="n">
-        <v>3113.1584620058</v>
+        <v>3269.45872689998</v>
       </c>
       <c r="I144" t="n">
         <v>1265</v>
@@ -12891,13 +12891,13 @@
         <v>1.695</v>
       </c>
       <c r="G155" t="n">
-        <v>1.63798239351583</v>
+        <v>1.59340230652575</v>
       </c>
       <c r="H155" t="n">
-        <v>4.20837128678319</v>
+        <v>3.80796033047508</v>
       </c>
       <c r="I155" t="n">
-        <v>3.87927</v>
+        <v>3.19058</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
